--- a/computation times.xlsx
+++ b/computation times.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Kerk's laptop</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>BMsimGSSA</t>
+  </si>
+  <si>
+    <t>baseline2</t>
   </si>
 </sst>
 </file>
@@ -448,13 +451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,165 +502,173 @@
         <v>20.870006689140801</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2">
-        <f>C4/C2</f>
-        <v>1.8518824345174754E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.206367122009396</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>122.81623181398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <f>C5/C2</f>
+        <v>1.8518824345174754E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.206367122009396</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2">
-        <f>D7/D2</f>
-        <v>31.537829729678734</v>
-      </c>
-      <c r="D7">
-        <v>3199.44684340299</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
-        <f>C8/C2</f>
-        <v>62.380262520635483</v>
-      </c>
-      <c r="C8">
-        <v>6951.4322327531399</v>
+        <f>D8/D2</f>
+        <v>31.537829729678734</v>
+      </c>
+      <c r="D8">
+        <v>3199.44684340299</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <f>C9/C2</f>
+        <v>62.380262520635483</v>
+      </c>
+      <c r="C9">
+        <v>6951.4322327531399</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <f>C12/C2</f>
-        <v>9.1913275144513942E-5</v>
-      </c>
-      <c r="C12">
-        <v>1.0242485004710001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <f>C13/C2</f>
+        <v>9.1913275144513942E-5</v>
+      </c>
+      <c r="C13">
+        <v>1.0242485004710001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <f>F14/F2</f>
-        <v>2.9930979083545597</v>
-      </c>
-      <c r="F14">
-        <v>62.465973368613</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <f>C15/C2</f>
-        <v>882.53140594451622</v>
-      </c>
-      <c r="C15">
-        <v>98346.127666106506</v>
+        <f>F15/F2</f>
+        <v>2.9930979083545597</v>
+      </c>
+      <c r="F15">
+        <v>62.465973368613</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <f>C16/C2</f>
+        <v>882.53140594451622</v>
+      </c>
+      <c r="C16">
+        <v>98346.127666106506</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <f>F17/F2</f>
+      <c r="B18" s="1">
+        <f>F18/F2</f>
         <v>595.22511766399043</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>12422.3521871921</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2">
-        <f>D19/D2</f>
-        <v>1.2889469253580764E-3</v>
-      </c>
-      <c r="D19">
-        <v>0.130760968874471</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <f>D20/D2</f>
+        <v>1.2889469253580764E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.130760968874471</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1">
-        <f>D22/D2</f>
-        <v>21.322612219454879</v>
-      </c>
-      <c r="D22">
-        <v>2163.1343990180098</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <f>D23/D2</f>
+        <v>21.322612219454879</v>
+      </c>
+      <c r="D23">
+        <v>2163.1343990180098</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>

--- a/computation times.xlsx
+++ b/computation times.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Kerk's laptop</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Kerk's desktop</t>
   </si>
   <si>
-    <t>Daryl's computer</t>
-  </si>
-  <si>
     <t>Relative</t>
   </si>
   <si>
@@ -104,6 +101,15 @@
   </si>
   <si>
     <t>baseline2</t>
+  </si>
+  <si>
+    <t>Anthony's desktop</t>
+  </si>
+  <si>
+    <t>Anthony's laptop</t>
+  </si>
+  <si>
+    <t>Daryl's laptop</t>
   </si>
 </sst>
 </file>
@@ -451,13 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -465,9 +471,9 @@
     <col min="2" max="2" width="12.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -479,10 +485,16 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -502,17 +514,20 @@
         <v>20.870006689140801</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>122.81623181398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121.152892872923</v>
+      </c>
+      <c r="G3">
+        <v>104.580126871513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <f>C5/C2</f>
@@ -522,19 +537,19 @@
         <v>0.206367122009396</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <f>D8/D2</f>
@@ -544,9 +559,9 @@
         <v>3199.44684340299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <f>C9/C2</f>
@@ -556,17 +571,17 @@
         <v>6951.4322327531399</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -578,12 +593,12 @@
         <v>1.0242485004710001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -595,7 +610,7 @@
         <v>62.465973368613</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>

--- a/computation times.xlsx
+++ b/computation times.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klp4/Dropbox/Papers/5 in progress/Policy Uncertainty/Python Code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="460" windowWidth="23860" windowHeight="12600"/>
+    <workbookView xWindow="1740" yWindow="465" windowWidth="23865" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -115,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
@@ -459,16 +454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" style="2"/>
+    <col min="2" max="2" width="12.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -539,12 +534,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <f>F6/F2</f>
+        <v>173.34756409923267</v>
+      </c>
+      <c r="F6">
+        <v>3617.7648222972498</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -573,12 +575,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <f>C10/C2</f>
+        <v>122.76904415020975</v>
+      </c>
+      <c r="C10">
+        <v>13680.9409932789</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -586,28 +595,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <f>C13/C2</f>
-        <v>9.1913275144513942E-5</v>
-      </c>
-      <c r="C13">
-        <v>1.0242485004710001E-2</v>
+        <f>D13/D2</f>
+        <v>1.3092602976861174E-4</v>
+      </c>
+      <c r="D13">
+        <v>1.32821717998012E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <f>F14/F2</f>
+        <v>2.9930979083545597</v>
+      </c>
+      <c r="F14">
+        <v>62.465973368613</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <f>F15/F2</f>
-        <v>2.9930979083545597</v>
-      </c>
-      <c r="F15">
-        <v>62.465973368613</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -615,33 +624,30 @@
         <v>6</v>
       </c>
       <c r="B16" s="1">
-        <f>C16/C2</f>
-        <v>882.53140594451622</v>
-      </c>
-      <c r="C16">
-        <v>98346.127666106506</v>
+        <f>D16/D2</f>
+        <v>103.40719125140632</v>
+      </c>
+      <c r="D16">
+        <v>10490.443206468901</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <f>F17/F2</f>
+        <v>595.22511766399043</v>
+      </c>
+      <c r="F17">
+        <v>12422.3521871921</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1">
-        <f>F18/F2</f>
-        <v>595.22511766399043</v>
-      </c>
-      <c r="F18">
-        <v>12422.3521871921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -649,20 +655,17 @@
       </c>
       <c r="B20" s="2">
         <f>D20/D2</f>
-        <v>1.2889469253580764E-3</v>
-      </c>
-      <c r="D20">
-        <v>0.130760968874471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -671,20 +674,17 @@
       </c>
       <c r="B23" s="1">
         <f>D23/D2</f>
-        <v>21.322612219454879</v>
-      </c>
-      <c r="D23">
-        <v>2163.1343990180098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -710,7 +710,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/computation times.xlsx
+++ b/computation times.xlsx
@@ -455,10 +455,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,10 +625,10 @@
       </c>
       <c r="B16" s="1">
         <f>D16/D2</f>
-        <v>103.40719125140632</v>
+        <v>106.7579108265962</v>
       </c>
       <c r="D16">
-        <v>10490.443206468901</v>
+        <v>10830.3666970787</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -654,8 +654,11 @@
         <v>9</v>
       </c>
       <c r="B20" s="2">
-        <f>D20/D2</f>
-        <v>0</v>
+        <f>C20/C2</f>
+        <v>3.5265878209124344E-4</v>
+      </c>
+      <c r="C20">
+        <v>3.9299027062952498E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -673,8 +676,11 @@
         <v>12</v>
       </c>
       <c r="B23" s="1">
-        <f>D23/D2</f>
-        <v>0</v>
+        <f>C23/C2</f>
+        <v>19.539120268242446</v>
+      </c>
+      <c r="C23">
+        <v>2177.3693303610198</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">

--- a/computation times.xlsx
+++ b/computation times.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klp4/Dropbox/Papers/5 in progress/Policy Uncertainty/Python Code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="465" windowWidth="23865" windowHeight="12600"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="11500" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Kerk's laptop</t>
   </si>
@@ -96,9 +101,6 @@
   </si>
   <si>
     <t>baseline2</t>
-  </si>
-  <si>
-    <t>Anthony's desktop</t>
   </si>
   <si>
     <t>Anthony's laptop</t>
@@ -110,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
@@ -452,21 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" style="2"/>
+    <col min="2" max="2" width="12.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
@@ -480,16 +482,13 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -509,7 +508,7 @@
         <v>20.870006689140801</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -520,7 +519,7 @@
         <v>104.580126871513</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -532,24 +531,31 @@
         <v>0.206367122009396</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <f>F6/F2</f>
-        <v>173.34756409923267</v>
-      </c>
-      <c r="F6">
-        <v>3617.7648222972498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <f>D6/D2</f>
+        <v>0.2924845068967401</v>
+      </c>
+      <c r="D6">
+        <v>29.671941295771202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f>C7/C2</f>
+        <v>0.83543701622406852</v>
+      </c>
+      <c r="C7">
+        <v>93.098098153946907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -561,7 +567,7 @@
         <v>3199.44684340299</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -573,7 +579,7 @@
         <v>6951.4322327531399</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -585,12 +591,19 @@
         <v>13680.9409932789</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f>C11/C2</f>
+        <v>41.496690635862635</v>
+      </c>
+      <c r="C11">
+        <v>4624.24204680603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -602,7 +615,7 @@
         <v>1.32821717998012E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -614,12 +627,12 @@
         <v>62.465973368613</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -704,7 +717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -716,7 +729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/computation times.xlsx
+++ b/computation times.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="11500" windowHeight="12600"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="14160" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Kerk's laptop</t>
   </si>
@@ -40,18 +40,12 @@
     <t>ILAsolveLIN</t>
   </si>
   <si>
-    <t>ILAsolveVFI</t>
-  </si>
-  <si>
     <t>ILAsolveGSSA</t>
   </si>
   <si>
     <t>ILAsimLIN</t>
   </si>
   <si>
-    <t>ILAsimVFI</t>
-  </si>
-  <si>
     <t>ILAsimGSSA</t>
   </si>
   <si>
@@ -106,7 +100,25 @@
     <t>Anthony's laptop</t>
   </si>
   <si>
-    <t>Daryl's laptop</t>
+    <t>ILAsolveVFI11</t>
+  </si>
+  <si>
+    <t>ILAsimVFI11</t>
+  </si>
+  <si>
+    <t>ILAsolveVFI21</t>
+  </si>
+  <si>
+    <t>ILAsolveVFI31</t>
+  </si>
+  <si>
+    <t>ILAsimVFI21</t>
+  </si>
+  <si>
+    <t>ILAsimVFI31</t>
+  </si>
+  <si>
+    <t>Daryl's desktop</t>
   </si>
 </sst>
 </file>
@@ -454,13 +466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -470,7 +482,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -479,13 +491,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -507,10 +519,14 @@
       <c r="F2">
         <v>20.870006689140801</v>
       </c>
+      <c r="G2">
+        <f>G3*C2/C3</f>
+        <v>96.192778847333656</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>121.152892872923</v>
@@ -521,7 +537,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <f>C5/C2</f>
@@ -533,7 +549,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <f>D6/D2</f>
@@ -545,7 +561,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <f>C7/C2</f>
@@ -557,7 +573,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <f>D8/D2</f>
@@ -569,7 +585,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <f>C9/C2</f>
@@ -581,7 +597,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <f>C10/C2</f>
@@ -593,7 +609,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <f>C11/C2</f>
@@ -617,7 +633,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <f>F14/F2</f>
@@ -629,81 +645,142 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <f>C15/C2</f>
+        <v>7.7870982213720827</v>
+      </c>
+      <c r="C15">
+        <v>867.76623547798897</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <f>C16/C2</f>
+        <v>132.56461969226794</v>
+      </c>
+      <c r="C16">
+        <v>14772.5247220089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <f>F17/F2</f>
+        <v>7072.0575967143259</v>
+      </c>
+      <c r="F17">
+        <v>147593.889349417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <f>D18/D2</f>
+        <v>106.7579108265962</v>
+      </c>
+      <c r="D18">
+        <v>10830.3666970787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
-        <f>D16/D2</f>
-        <v>106.7579108265962</v>
-      </c>
-      <c r="D16">
-        <v>10830.3666970787</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B19" s="1">
+        <f>F19/F2</f>
+        <v>595.22511766399043</v>
+      </c>
+      <c r="F19">
+        <v>12422.3521871921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <f>G20/G2</f>
+        <v>50.749120951849228</v>
+      </c>
+      <c r="G20">
+        <v>4881.6989684178197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <f>G21/G2</f>
+        <v>75.994291812789086</v>
+      </c>
+      <c r="G21">
+        <v>7310.1021060073599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <f>G22/G2</f>
+        <v>170.66020271620459</v>
+      </c>
+      <c r="G22">
+        <v>16416.279137920999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <f>C24/C2</f>
+        <v>3.5265878209124344E-4</v>
+      </c>
+      <c r="C24">
+        <v>3.9299027062952498E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <f>F17/F2</f>
-        <v>595.22511766399043</v>
-      </c>
-      <c r="F17">
-        <v>12422.3521871921</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2">
-        <f>C20/C2</f>
-        <v>3.5265878209124344E-4</v>
-      </c>
-      <c r="C20">
-        <v>3.9299027062952498E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <f>C27/C2</f>
+        <v>19.539120268242446</v>
+      </c>
+      <c r="C27">
+        <v>2177.3693303610198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1">
-        <f>C23/C2</f>
-        <v>19.539120268242446</v>
-      </c>
-      <c r="C23">
-        <v>2177.3693303610198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
